--- a/artfynd/A 36117-2023.xlsx
+++ b/artfynd/A 36117-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY52"/>
+  <dimension ref="A1:AY58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112166971</v>
+        <v>112166961</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>78512</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>875443.5476199862</v>
+        <v>875302.0227124789</v>
       </c>
       <c r="R2" t="n">
-        <v>7354103.607522468</v>
+        <v>7354295.969702114</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112167008</v>
+        <v>112166962</v>
       </c>
       <c r="B3" t="n">
-        <v>78611</v>
+        <v>78512</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6463</v>
+        <v>6456</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>875534.983491712</v>
+        <v>875310.5009810103</v>
       </c>
       <c r="R3" t="n">
-        <v>7353978.799495995</v>
+        <v>7354260.181823883</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112166962</v>
+        <v>112166964</v>
       </c>
       <c r="B4" t="n">
         <v>78512</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>875310.5009810103</v>
+        <v>875312.5731220604</v>
       </c>
       <c r="R4" t="n">
-        <v>7354260.181823883</v>
+        <v>7354253.894968256</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112166991</v>
+        <v>112166954</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>89425</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>875303.0168671205</v>
+        <v>875435.6664861828</v>
       </c>
       <c r="R5" t="n">
-        <v>7354303.896869088</v>
+        <v>7354248.603331526</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112166948</v>
+        <v>112166981</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>875312.5731220604</v>
+        <v>875418.3952553285</v>
       </c>
       <c r="R6" t="n">
-        <v>7354253.894968256</v>
+        <v>7354405.463572283</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112166951</v>
+        <v>112167007</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>81248</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>875413.9195936297</v>
+        <v>875455.4798512205</v>
       </c>
       <c r="R7" t="n">
-        <v>7354162.416682465</v>
+        <v>7354167.971739467</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112167000</v>
+        <v>112166953</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>875638.4173985594</v>
+        <v>875437.387275072</v>
       </c>
       <c r="R8" t="n">
-        <v>7354114.481302084</v>
+        <v>7354103.604644656</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112166953</v>
+        <v>112166983</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>875437.387275072</v>
+        <v>875412.4212765703</v>
       </c>
       <c r="R9" t="n">
-        <v>7354103.604644656</v>
+        <v>7354419.432829508</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112166969</v>
+        <v>112166974</v>
       </c>
       <c r="B10" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>875371.0333055011</v>
+        <v>875577.5513314721</v>
       </c>
       <c r="R10" t="n">
-        <v>7354206.735177424</v>
+        <v>7354182.650747025</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112167002</v>
+        <v>112166959</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>89416</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>875618.4853887358</v>
+        <v>875557.7214833731</v>
       </c>
       <c r="R11" t="n">
-        <v>7354106.892612419</v>
+        <v>7354079.074792389</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112166955</v>
+        <v>112166946</v>
       </c>
       <c r="B12" t="n">
-        <v>78605</v>
+        <v>89369</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>5447</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>875570.6473238987</v>
+        <v>875397.9991930425</v>
       </c>
       <c r="R12" t="n">
-        <v>7354019.261956375</v>
+        <v>7354134.032693912</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112166981</v>
+        <v>112166957</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>89416</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>875418.3952553285</v>
+        <v>875606.6773430442</v>
       </c>
       <c r="R13" t="n">
-        <v>7354405.463572283</v>
+        <v>7354099.980126977</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112166986</v>
+        <v>112166989</v>
       </c>
       <c r="B14" t="n">
         <v>77515</v>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>875314.5039566912</v>
+        <v>875245.3932363573</v>
       </c>
       <c r="R14" t="n">
-        <v>7354476.081456096</v>
+        <v>7354354.038840338</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112166987</v>
+        <v>112166998</v>
       </c>
       <c r="B15" t="n">
         <v>77515</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>875317.6767637208</v>
+        <v>875596.4541978037</v>
       </c>
       <c r="R15" t="n">
-        <v>7354483.06871422</v>
+        <v>7354102.715784074</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112166959</v>
+        <v>112166994</v>
       </c>
       <c r="B16" t="n">
-        <v>89416</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,25 +2260,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1205</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>875557.7214833731</v>
+        <v>875455.6803122828</v>
       </c>
       <c r="R16" t="n">
-        <v>7354079.074792389</v>
+        <v>7354101.947141548</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112166999</v>
+        <v>112166971</v>
       </c>
       <c r="B17" t="n">
         <v>77515</v>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>875623.6508677476</v>
+        <v>875443.5476199862</v>
       </c>
       <c r="R17" t="n">
-        <v>7354105.121760355</v>
+        <v>7354103.607522468</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112166979</v>
+        <v>112167006</v>
       </c>
       <c r="B18" t="n">
         <v>77515</v>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>875434.3815348528</v>
+        <v>875668.2997894024</v>
       </c>
       <c r="R18" t="n">
-        <v>7354359.60460389</v>
+        <v>7354133.6575912</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112167006</v>
+        <v>112166972</v>
       </c>
       <c r="B19" t="n">
         <v>77515</v>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>875668.2997894024</v>
+        <v>875657.9657145059</v>
       </c>
       <c r="R19" t="n">
-        <v>7354133.6575912</v>
+        <v>7354149.506611589</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112167003</v>
+        <v>112166999</v>
       </c>
       <c r="B20" t="n">
         <v>77515</v>
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>875669.3517587241</v>
+        <v>875623.6508677476</v>
       </c>
       <c r="R20" t="n">
-        <v>7354122.721076392</v>
+        <v>7354105.121760355</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112166977</v>
+        <v>112166978</v>
       </c>
       <c r="B21" t="n">
         <v>77515</v>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>875454.646489549</v>
+        <v>875453.2943360538</v>
       </c>
       <c r="R21" t="n">
-        <v>7354164.988575283</v>
+        <v>7354344.082845558</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2920,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112166958</v>
+        <v>112166948</v>
       </c>
       <c r="B22" t="n">
-        <v>89416</v>
+        <v>89405</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2932,25 +2932,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2960,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>875564.7704539513</v>
+        <v>875312.5731220604</v>
       </c>
       <c r="R22" t="n">
-        <v>7354075.504292976</v>
+        <v>7354253.894968256</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112166980</v>
+        <v>112167003</v>
       </c>
       <c r="B23" t="n">
         <v>77515</v>
@@ -3072,10 +3072,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>875429.6957207673</v>
+        <v>875669.3517587241</v>
       </c>
       <c r="R23" t="n">
-        <v>7354388.51426765</v>
+        <v>7354122.721076392</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3256,10 +3256,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112166997</v>
+        <v>112166951</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3272,21 +3272,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3296,10 +3296,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>875624.3356815388</v>
+        <v>875413.9195936297</v>
       </c>
       <c r="R25" t="n">
-        <v>7354053.929346597</v>
+        <v>7354162.416682465</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112166947</v>
+        <v>112166991</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3384,21 +3384,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3408,10 +3408,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>875382.8247398234</v>
+        <v>875303.0168671205</v>
       </c>
       <c r="R26" t="n">
-        <v>7354468.804285115</v>
+        <v>7354303.896869088</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3480,10 +3480,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112166963</v>
+        <v>112166988</v>
       </c>
       <c r="B27" t="n">
-        <v>78512</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3492,25 +3492,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3520,10 +3520,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>875307.2457561794</v>
+        <v>875308.2989216358</v>
       </c>
       <c r="R27" t="n">
-        <v>7354263.02871524</v>
+        <v>7354421.104895215</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112166964</v>
+        <v>112166986</v>
       </c>
       <c r="B28" t="n">
-        <v>78512</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3604,25 +3604,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3632,10 +3632,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>875312.5731220604</v>
+        <v>875314.5039566912</v>
       </c>
       <c r="R28" t="n">
-        <v>7354253.894968256</v>
+        <v>7354476.081456096</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3704,10 +3704,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112166988</v>
+        <v>112166947</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3720,21 +3720,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3744,10 +3744,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>875308.2989216358</v>
+        <v>875382.8247398234</v>
       </c>
       <c r="R29" t="n">
-        <v>7354421.104895215</v>
+        <v>7354468.804285115</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112166992</v>
+        <v>112166968</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>95532</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3828,25 +3828,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>875311.2267313503</v>
+        <v>875309.2664921198</v>
       </c>
       <c r="R30" t="n">
-        <v>7354263.970901011</v>
+        <v>7354426.156721246</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112166990</v>
+        <v>112166996</v>
       </c>
       <c r="B31" t="n">
         <v>77515</v>
@@ -3968,10 +3968,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>875293.2744680806</v>
+        <v>875493.7630512458</v>
       </c>
       <c r="R31" t="n">
-        <v>7354339.925475777</v>
+        <v>7354010.62449762</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4040,10 +4040,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112166944</v>
+        <v>112167002</v>
       </c>
       <c r="B32" t="n">
-        <v>89330</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4056,21 +4056,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3242</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4080,10 +4080,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>875605.4478862252</v>
+        <v>875618.4853887358</v>
       </c>
       <c r="R32" t="n">
-        <v>7354179.81695406</v>
+        <v>7354106.892612419</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112166994</v>
+        <v>112167001</v>
       </c>
       <c r="B33" t="n">
         <v>77515</v>
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>875455.6803122828</v>
+        <v>875638.4173985594</v>
       </c>
       <c r="R33" t="n">
-        <v>7354101.947141548</v>
+        <v>7354114.481302084</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4264,10 +4264,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112166998</v>
+        <v>112166955</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4276,25 +4276,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>875596.4541978037</v>
+        <v>875570.6473238987</v>
       </c>
       <c r="R34" t="n">
-        <v>7354102.715784074</v>
+        <v>7354019.261956375</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112166975</v>
+        <v>112166990</v>
       </c>
       <c r="B35" t="n">
         <v>77515</v>
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>875610.304542246</v>
+        <v>875293.2744680806</v>
       </c>
       <c r="R35" t="n">
-        <v>7354118.927179726</v>
+        <v>7354339.925475777</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112166973</v>
+        <v>112166956</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4500,25 +4500,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4528,10 +4528,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>875622.2146905323</v>
+        <v>875574.710135489</v>
       </c>
       <c r="R36" t="n">
-        <v>7354036.003822429</v>
+        <v>7354016.52294085</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112166982</v>
+        <v>112166984</v>
       </c>
       <c r="B37" t="n">
         <v>77515</v>
@@ -4640,10 +4640,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>875420.4079515134</v>
+        <v>875393.9379067272</v>
       </c>
       <c r="R37" t="n">
-        <v>7354430.345574434</v>
+        <v>7354444.036304386</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4712,10 +4712,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112166956</v>
+        <v>112166969</v>
       </c>
       <c r="B38" t="n">
-        <v>78605</v>
+        <v>95532</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4728,21 +4728,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6462</v>
+        <v>221945</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4752,10 +4752,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>875574.710135489</v>
+        <v>875371.0333055011</v>
       </c>
       <c r="R38" t="n">
-        <v>7354016.52294085</v>
+        <v>7354206.735177424</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4824,10 +4824,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112166957</v>
+        <v>112166970</v>
       </c>
       <c r="B39" t="n">
-        <v>89416</v>
+        <v>77268</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4836,25 +4836,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1205</v>
+        <v>228912</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4864,10 +4864,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>875606.6773430442</v>
+        <v>875503.5359317486</v>
       </c>
       <c r="R39" t="n">
-        <v>7354099.980126977</v>
+        <v>7354109.575042046</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4936,10 +4936,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112166968</v>
+        <v>112166979</v>
       </c>
       <c r="B40" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4948,25 +4948,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>875309.2664921198</v>
+        <v>875434.3815348528</v>
       </c>
       <c r="R40" t="n">
-        <v>7354426.156721246</v>
+        <v>7354359.60460389</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112166996</v>
+        <v>112167008</v>
       </c>
       <c r="B41" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5060,20 +5060,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -5088,10 +5088,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>875493.7630512458</v>
+        <v>875534.983491712</v>
       </c>
       <c r="R41" t="n">
-        <v>7354010.62449762</v>
+        <v>7353978.799495995</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112166993</v>
+        <v>112166997</v>
       </c>
       <c r="B42" t="n">
         <v>77515</v>
@@ -5200,10 +5200,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>875305.2787624763</v>
+        <v>875624.3356815388</v>
       </c>
       <c r="R42" t="n">
-        <v>7354286.969523014</v>
+        <v>7354053.929346597</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5272,10 +5272,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112166950</v>
+        <v>112166958</v>
       </c>
       <c r="B43" t="n">
-        <v>89405</v>
+        <v>89416</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5284,25 +5284,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5312,10 +5312,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>875338.9648555306</v>
+        <v>875564.7704539513</v>
       </c>
       <c r="R43" t="n">
-        <v>7354231.576749401</v>
+        <v>7354075.504292976</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112166984</v>
+        <v>112166973</v>
       </c>
       <c r="B44" t="n">
         <v>77515</v>
@@ -5424,10 +5424,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>875393.9379067272</v>
+        <v>875622.2146905323</v>
       </c>
       <c r="R44" t="n">
-        <v>7354444.036304386</v>
+        <v>7354036.003822429</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5496,10 +5496,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112166983</v>
+        <v>112166950</v>
       </c>
       <c r="B45" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5512,21 +5512,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5536,10 +5536,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>875412.4212765703</v>
+        <v>875338.9648555306</v>
       </c>
       <c r="R45" t="n">
-        <v>7354419.432829508</v>
+        <v>7354231.576749401</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112166974</v>
+        <v>112166980</v>
       </c>
       <c r="B46" t="n">
         <v>77515</v>
@@ -5648,10 +5648,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>875577.5513314721</v>
+        <v>875429.6957207673</v>
       </c>
       <c r="R46" t="n">
-        <v>7354182.650747025</v>
+        <v>7354388.51426765</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5720,10 +5720,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112166961</v>
+        <v>112166992</v>
       </c>
       <c r="B47" t="n">
-        <v>78512</v>
+        <v>77515</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5732,25 +5732,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5760,10 +5760,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>875302.0227124789</v>
+        <v>875311.2267313503</v>
       </c>
       <c r="R47" t="n">
-        <v>7354295.969702114</v>
+        <v>7354263.970901011</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112166978</v>
+        <v>112166975</v>
       </c>
       <c r="B48" t="n">
         <v>77515</v>
@@ -5872,10 +5872,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>875453.2943360538</v>
+        <v>875610.304542246</v>
       </c>
       <c r="R48" t="n">
-        <v>7354344.082845558</v>
+        <v>7354118.927179726</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112166995</v>
+        <v>112166982</v>
       </c>
       <c r="B49" t="n">
         <v>77515</v>
@@ -5984,10 +5984,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>875470.5836984399</v>
+        <v>875420.4079515134</v>
       </c>
       <c r="R49" t="n">
-        <v>7354101.067430569</v>
+        <v>7354430.345574434</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6056,7 +6056,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112166989</v>
+        <v>112166977</v>
       </c>
       <c r="B50" t="n">
         <v>77515</v>
@@ -6096,10 +6096,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>875245.3932363573</v>
+        <v>875454.646489549</v>
       </c>
       <c r="R50" t="n">
-        <v>7354354.038840338</v>
+        <v>7354164.988575283</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6280,10 +6280,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112166972</v>
+        <v>112166945</v>
       </c>
       <c r="B52" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6292,25 +6292,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6320,10 +6320,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>875657.9657145059</v>
+        <v>875310.3941335788</v>
       </c>
       <c r="R52" t="n">
-        <v>7354149.506611589</v>
+        <v>7354254.83450614</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6389,6 +6389,678 @@
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>112166960</v>
+      </c>
+      <c r="B53" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Pikku Pahtavaara, Nb</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>875481.3272585889</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7354048.348384196</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Övertorneå</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Hietaniemi</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Marie Persson</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Marie Persson</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>112166995</v>
+      </c>
+      <c r="B54" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Pikku Pahtavaara, Nb</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>875470.5836984399</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7354101.067430569</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Övertorneå</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Hietaniemi</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Marie Persson</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Marie Persson</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>112166963</v>
+      </c>
+      <c r="B55" t="n">
+        <v>78512</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>6456</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Skinnlav</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Leptogium saturninum</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Pikku Pahtavaara, Nb</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>875307.2457561794</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7354263.02871524</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Övertorneå</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Hietaniemi</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Marie Persson</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Marie Persson</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>112166944</v>
+      </c>
+      <c r="B56" t="n">
+        <v>89330</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3242</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Vitplätt</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Chaetodermella luna</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Pikku Pahtavaara, Nb</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>875605.4478862252</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7354179.81695406</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Övertorneå</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Hietaniemi</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Marie Persson</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Marie Persson</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>112166987</v>
+      </c>
+      <c r="B57" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Pikku Pahtavaara, Nb</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>875317.6767637208</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7354483.06871422</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Övertorneå</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Hietaniemi</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Marie Persson</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Marie Persson</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>112166993</v>
+      </c>
+      <c r="B58" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Pikku Pahtavaara, Nb</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>875305.2787624763</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7354286.969523014</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Övertorneå</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Hietaniemi</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Marie Persson</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Marie Persson</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 36117-2023.xlsx
+++ b/artfynd/A 36117-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112166961</v>
+        <v>112167003</v>
       </c>
       <c r="B2" t="n">
-        <v>78512</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>875302.0227124789</v>
+        <v>875669</v>
       </c>
       <c r="R2" t="n">
-        <v>7354295.969702114</v>
+        <v>7354123</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -753,19 +753,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112166962</v>
+        <v>112166969</v>
       </c>
       <c r="B3" t="n">
-        <v>78512</v>
+        <v>95532</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6456</v>
+        <v>221945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>875310.5009810103</v>
+        <v>875371</v>
       </c>
       <c r="R3" t="n">
-        <v>7354260.181823883</v>
+        <v>7354207</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -865,19 +855,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112166964</v>
+        <v>112166992</v>
       </c>
       <c r="B4" t="n">
-        <v>78512</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +896,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>875312.5731220604</v>
+        <v>875311</v>
       </c>
       <c r="R4" t="n">
-        <v>7354253.894968256</v>
+        <v>7354264</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -977,19 +957,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112166954</v>
+        <v>112167007</v>
       </c>
       <c r="B5" t="n">
-        <v>89425</v>
+        <v>81248</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5442</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>875435.6664861828</v>
+        <v>875455</v>
       </c>
       <c r="R5" t="n">
-        <v>7354248.603331526</v>
+        <v>7354168</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1089,19 +1059,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,7 +1088,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112166981</v>
+        <v>112166996</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1168,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>875418.3952553285</v>
+        <v>875494</v>
       </c>
       <c r="R6" t="n">
-        <v>7354405.463572283</v>
+        <v>7354011</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1201,19 +1161,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1240,10 +1190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112167007</v>
+        <v>112166970</v>
       </c>
       <c r="B7" t="n">
-        <v>81248</v>
+        <v>77268</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1206,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1312</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>875455.4798512205</v>
+        <v>875504</v>
       </c>
       <c r="R7" t="n">
-        <v>7354167.971739467</v>
+        <v>7354110</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1313,19 +1263,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1352,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112166953</v>
+        <v>112166980</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1308,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1332,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>875437.387275072</v>
+        <v>875430</v>
       </c>
       <c r="R8" t="n">
-        <v>7354103.604644656</v>
+        <v>7354389</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1425,19 +1365,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1464,10 +1394,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112166983</v>
+        <v>112166962</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>78512</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1406,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1434,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>875412.4212765703</v>
+        <v>875311</v>
       </c>
       <c r="R9" t="n">
-        <v>7354419.432829508</v>
+        <v>7354260</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1537,19 +1467,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1576,7 +1496,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112166974</v>
+        <v>112166983</v>
       </c>
       <c r="B10" t="n">
         <v>77515</v>
@@ -1616,10 +1536,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>875577.5513314721</v>
+        <v>875412</v>
       </c>
       <c r="R10" t="n">
-        <v>7354182.650747025</v>
+        <v>7354419</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1649,19 +1569,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1688,10 +1598,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112166959</v>
+        <v>112166950</v>
       </c>
       <c r="B11" t="n">
-        <v>89416</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1610,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1638,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>875557.7214833731</v>
+        <v>875339</v>
       </c>
       <c r="R11" t="n">
-        <v>7354079.074792389</v>
+        <v>7354232</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1761,19 +1671,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1800,10 +1700,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112166946</v>
+        <v>112166957</v>
       </c>
       <c r="B12" t="n">
-        <v>89369</v>
+        <v>89416</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1716,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5447</v>
+        <v>1205</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1740,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>875397.9991930425</v>
+        <v>875607</v>
       </c>
       <c r="R12" t="n">
-        <v>7354134.032693912</v>
+        <v>7354100</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1873,19 +1773,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1912,7 +1802,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112166957</v>
+        <v>112166958</v>
       </c>
       <c r="B13" t="n">
         <v>89416</v>
@@ -1952,10 +1842,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>875606.6773430442</v>
+        <v>875565</v>
       </c>
       <c r="R13" t="n">
-        <v>7354099.980126977</v>
+        <v>7354076</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -1985,19 +1875,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2024,7 +1904,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112166989</v>
+        <v>112166981</v>
       </c>
       <c r="B14" t="n">
         <v>77515</v>
@@ -2064,10 +1944,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>875245.3932363573</v>
+        <v>875418</v>
       </c>
       <c r="R14" t="n">
-        <v>7354354.038840338</v>
+        <v>7354405</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2097,19 +1977,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2136,7 +2006,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112166998</v>
+        <v>112167001</v>
       </c>
       <c r="B15" t="n">
         <v>77515</v>
@@ -2176,10 +2046,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>875596.4541978037</v>
+        <v>875638</v>
       </c>
       <c r="R15" t="n">
-        <v>7354102.715784074</v>
+        <v>7354114</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2209,19 +2079,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2248,7 +2108,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112166994</v>
+        <v>112166999</v>
       </c>
       <c r="B16" t="n">
         <v>77515</v>
@@ -2288,10 +2148,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>875455.6803122828</v>
+        <v>875624</v>
       </c>
       <c r="R16" t="n">
-        <v>7354101.947141548</v>
+        <v>7354105</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2321,19 +2181,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2360,10 +2210,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112166971</v>
+        <v>112167010</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>5113</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,25 +2222,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2250,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>875443.5476199862</v>
+        <v>875444</v>
       </c>
       <c r="R17" t="n">
-        <v>7354103.607522468</v>
+        <v>7354145</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2433,19 +2283,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2472,10 +2312,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112167006</v>
+        <v>112166951</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2328,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2352,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>875668.2997894024</v>
+        <v>875414</v>
       </c>
       <c r="R18" t="n">
-        <v>7354133.6575912</v>
+        <v>7354162</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2545,19 +2385,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2584,10 +2414,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112166972</v>
+        <v>112166960</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,21 +2430,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2454,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>875657.9657145059</v>
+        <v>875481</v>
       </c>
       <c r="R19" t="n">
-        <v>7354149.506611589</v>
+        <v>7354048</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2657,19 +2487,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2696,7 +2516,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112166999</v>
+        <v>112166989</v>
       </c>
       <c r="B20" t="n">
         <v>77515</v>
@@ -2736,10 +2556,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>875623.6508677476</v>
+        <v>875245</v>
       </c>
       <c r="R20" t="n">
-        <v>7354105.121760355</v>
+        <v>7354354</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2769,19 +2589,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2808,10 +2618,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112166978</v>
+        <v>112166955</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2820,25 +2630,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2848,10 +2658,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>875453.2943360538</v>
+        <v>875571</v>
       </c>
       <c r="R21" t="n">
-        <v>7354344.082845558</v>
+        <v>7354019</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2881,19 +2691,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2920,10 +2720,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112166948</v>
+        <v>112166991</v>
       </c>
       <c r="B22" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2936,21 +2736,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2960,10 +2760,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>875312.5731220604</v>
+        <v>875303</v>
       </c>
       <c r="R22" t="n">
-        <v>7354253.894968256</v>
+        <v>7354304</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -2993,19 +2793,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3032,7 +2822,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112167003</v>
+        <v>112166971</v>
       </c>
       <c r="B23" t="n">
         <v>77515</v>
@@ -3072,10 +2862,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>875669.3517587241</v>
+        <v>875444</v>
       </c>
       <c r="R23" t="n">
-        <v>7354122.721076392</v>
+        <v>7354104</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3105,19 +2895,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3144,7 +2924,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112166985</v>
+        <v>112166997</v>
       </c>
       <c r="B24" t="n">
         <v>77515</v>
@@ -3184,10 +2964,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>875365.9620504322</v>
+        <v>875624</v>
       </c>
       <c r="R24" t="n">
-        <v>7354456.705459457</v>
+        <v>7354054</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3217,19 +2997,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3256,10 +3026,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112166951</v>
+        <v>112166988</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3272,21 +3042,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3296,10 +3066,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>875413.9195936297</v>
+        <v>875308</v>
       </c>
       <c r="R25" t="n">
-        <v>7354162.416682465</v>
+        <v>7354421</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3329,19 +3099,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3368,10 +3128,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112166991</v>
+        <v>112166947</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3384,21 +3144,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3408,10 +3168,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>875303.0168671205</v>
+        <v>875383</v>
       </c>
       <c r="R26" t="n">
-        <v>7354303.896869088</v>
+        <v>7354469</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3441,19 +3201,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3480,10 +3230,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112166988</v>
+        <v>112166944</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>89330</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3496,21 +3246,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>3242</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3520,10 +3270,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>875308.2989216358</v>
+        <v>875605</v>
       </c>
       <c r="R27" t="n">
-        <v>7354421.104895215</v>
+        <v>7354180</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3553,19 +3303,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3592,10 +3332,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112166986</v>
+        <v>112166954</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>89425</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3608,21 +3348,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3632,10 +3372,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>875314.5039566912</v>
+        <v>875436</v>
       </c>
       <c r="R28" t="n">
-        <v>7354476.081456096</v>
+        <v>7354249</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3665,19 +3405,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3704,10 +3434,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112166947</v>
+        <v>112166968</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>95532</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3716,25 +3446,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>221945</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3744,10 +3474,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>875382.8247398234</v>
+        <v>875309</v>
       </c>
       <c r="R29" t="n">
-        <v>7354468.804285115</v>
+        <v>7354426</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3777,19 +3507,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3816,10 +3536,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112166968</v>
+        <v>112166994</v>
       </c>
       <c r="B30" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3828,25 +3548,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3856,10 +3576,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>875309.2664921198</v>
+        <v>875456</v>
       </c>
       <c r="R30" t="n">
-        <v>7354426.156721246</v>
+        <v>7354102</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3889,19 +3609,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3928,7 +3638,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112166996</v>
+        <v>112167002</v>
       </c>
       <c r="B31" t="n">
         <v>77515</v>
@@ -3968,10 +3678,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>875493.7630512458</v>
+        <v>875618</v>
       </c>
       <c r="R31" t="n">
-        <v>7354010.62449762</v>
+        <v>7354107</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4001,19 +3711,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4040,7 +3740,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112167002</v>
+        <v>112166973</v>
       </c>
       <c r="B32" t="n">
         <v>77515</v>
@@ -4080,10 +3780,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>875618.4853887358</v>
+        <v>875622</v>
       </c>
       <c r="R32" t="n">
-        <v>7354106.892612419</v>
+        <v>7354036</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4113,19 +3813,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4152,10 +3842,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112167001</v>
+        <v>112166961</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>78512</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4164,25 +3854,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4192,10 +3882,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>875638.4173985594</v>
+        <v>875302</v>
       </c>
       <c r="R33" t="n">
-        <v>7354114.481302084</v>
+        <v>7354296</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4225,19 +3915,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4264,10 +3944,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112166955</v>
+        <v>112166977</v>
       </c>
       <c r="B34" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4276,25 +3956,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4304,10 +3984,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>875570.6473238987</v>
+        <v>875455</v>
       </c>
       <c r="R34" t="n">
-        <v>7354019.261956375</v>
+        <v>7354165</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4337,19 +4017,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4376,10 +4046,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112166990</v>
+        <v>112166948</v>
       </c>
       <c r="B35" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4392,21 +4062,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4416,10 +4086,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>875293.2744680806</v>
+        <v>875313</v>
       </c>
       <c r="R35" t="n">
-        <v>7354339.925475777</v>
+        <v>7354254</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4449,19 +4119,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4488,10 +4148,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112166956</v>
+        <v>112166979</v>
       </c>
       <c r="B36" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4500,25 +4160,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4528,10 +4188,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>875574.710135489</v>
+        <v>875434</v>
       </c>
       <c r="R36" t="n">
-        <v>7354016.52294085</v>
+        <v>7354360</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4561,19 +4221,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4600,7 +4250,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112166984</v>
+        <v>112166986</v>
       </c>
       <c r="B37" t="n">
         <v>77515</v>
@@ -4640,10 +4290,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>875393.9379067272</v>
+        <v>875315</v>
       </c>
       <c r="R37" t="n">
-        <v>7354444.036304386</v>
+        <v>7354476</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4673,19 +4323,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4712,10 +4352,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112166969</v>
+        <v>112166959</v>
       </c>
       <c r="B38" t="n">
-        <v>95532</v>
+        <v>89416</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4728,21 +4368,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221945</v>
+        <v>1205</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4752,10 +4392,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>875371.0333055011</v>
+        <v>875558</v>
       </c>
       <c r="R38" t="n">
-        <v>7354206.735177424</v>
+        <v>7354079</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4785,19 +4425,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4824,10 +4454,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112166970</v>
+        <v>112167006</v>
       </c>
       <c r="B39" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4840,21 +4470,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4864,10 +4494,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>875503.5359317486</v>
+        <v>875668</v>
       </c>
       <c r="R39" t="n">
-        <v>7354109.575042046</v>
+        <v>7354134</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4897,19 +4527,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4936,7 +4556,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112166979</v>
+        <v>112166998</v>
       </c>
       <c r="B40" t="n">
         <v>77515</v>
@@ -4976,10 +4596,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>875434.3815348528</v>
+        <v>875596</v>
       </c>
       <c r="R40" t="n">
-        <v>7354359.60460389</v>
+        <v>7354103</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5009,19 +4629,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5048,10 +4658,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112167008</v>
+        <v>112166972</v>
       </c>
       <c r="B41" t="n">
-        <v>78611</v>
+        <v>77515</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5060,20 +4670,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -5088,10 +4698,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>875534.983491712</v>
+        <v>875658</v>
       </c>
       <c r="R41" t="n">
-        <v>7353978.799495995</v>
+        <v>7354150</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5121,19 +4731,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5160,7 +4760,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112166997</v>
+        <v>112166984</v>
       </c>
       <c r="B42" t="n">
         <v>77515</v>
@@ -5200,10 +4800,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>875624.3356815388</v>
+        <v>875394</v>
       </c>
       <c r="R42" t="n">
-        <v>7354053.929346597</v>
+        <v>7354444</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5233,19 +4833,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5272,10 +4862,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112166958</v>
+        <v>112166985</v>
       </c>
       <c r="B43" t="n">
-        <v>89416</v>
+        <v>77515</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5284,25 +4874,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1205</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5312,10 +4902,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>875564.7704539513</v>
+        <v>875366</v>
       </c>
       <c r="R43" t="n">
-        <v>7354075.504292976</v>
+        <v>7354457</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5345,19 +4935,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5384,7 +4964,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112166973</v>
+        <v>112166978</v>
       </c>
       <c r="B44" t="n">
         <v>77515</v>
@@ -5424,10 +5004,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>875622.2146905323</v>
+        <v>875453</v>
       </c>
       <c r="R44" t="n">
-        <v>7354036.003822429</v>
+        <v>7354344</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5457,19 +5037,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5496,10 +5066,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112166950</v>
+        <v>112166990</v>
       </c>
       <c r="B45" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5512,21 +5082,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5536,10 +5106,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>875338.9648555306</v>
+        <v>875293</v>
       </c>
       <c r="R45" t="n">
-        <v>7354231.576749401</v>
+        <v>7354340</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5569,19 +5139,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5608,10 +5168,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112166980</v>
+        <v>112166963</v>
       </c>
       <c r="B46" t="n">
-        <v>77515</v>
+        <v>78512</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5620,25 +5180,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5648,10 +5208,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>875429.6957207673</v>
+        <v>875307</v>
       </c>
       <c r="R46" t="n">
-        <v>7354388.51426765</v>
+        <v>7354263</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5681,19 +5241,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5720,7 +5270,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112166992</v>
+        <v>112166974</v>
       </c>
       <c r="B47" t="n">
         <v>77515</v>
@@ -5760,10 +5310,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>875311.2267313503</v>
+        <v>875578</v>
       </c>
       <c r="R47" t="n">
-        <v>7354263.970901011</v>
+        <v>7354183</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5793,19 +5343,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5832,7 +5372,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112166975</v>
+        <v>112166982</v>
       </c>
       <c r="B48" t="n">
         <v>77515</v>
@@ -5872,10 +5412,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>875610.304542246</v>
+        <v>875420</v>
       </c>
       <c r="R48" t="n">
-        <v>7354118.927179726</v>
+        <v>7354430</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5905,19 +5445,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5944,10 +5474,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112166982</v>
+        <v>112167008</v>
       </c>
       <c r="B49" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5956,20 +5486,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5984,10 +5514,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>875420.4079515134</v>
+        <v>875535</v>
       </c>
       <c r="R49" t="n">
-        <v>7354430.345574434</v>
+        <v>7353979</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6017,19 +5547,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6056,10 +5576,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112166977</v>
+        <v>112166946</v>
       </c>
       <c r="B50" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6068,25 +5588,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6096,10 +5616,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>875454.646489549</v>
+        <v>875398</v>
       </c>
       <c r="R50" t="n">
-        <v>7354164.988575283</v>
+        <v>7354134</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6129,19 +5649,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6168,10 +5678,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112167010</v>
+        <v>112166987</v>
       </c>
       <c r="B51" t="n">
-        <v>5113</v>
+        <v>77515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6180,25 +5690,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6208,10 +5718,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>875443.8092647091</v>
+        <v>875318</v>
       </c>
       <c r="R51" t="n">
-        <v>7354144.668306207</v>
+        <v>7354483</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6241,19 +5751,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6280,10 +5780,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112166945</v>
+        <v>112166995</v>
       </c>
       <c r="B52" t="n">
-        <v>89369</v>
+        <v>77515</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6292,25 +5792,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6320,10 +5820,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>875310.3941335788</v>
+        <v>875471</v>
       </c>
       <c r="R52" t="n">
-        <v>7354254.83450614</v>
+        <v>7354101</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6353,19 +5853,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6392,10 +5882,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112166960</v>
+        <v>112166964</v>
       </c>
       <c r="B53" t="n">
-        <v>56414</v>
+        <v>78512</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6404,25 +5894,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100049</v>
+        <v>6456</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6432,10 +5922,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>875481.3272585889</v>
+        <v>875313</v>
       </c>
       <c r="R53" t="n">
-        <v>7354048.348384196</v>
+        <v>7354254</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6465,19 +5955,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6504,7 +5984,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112166995</v>
+        <v>112166975</v>
       </c>
       <c r="B54" t="n">
         <v>77515</v>
@@ -6544,10 +6024,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>875470.5836984399</v>
+        <v>875610</v>
       </c>
       <c r="R54" t="n">
-        <v>7354101.067430569</v>
+        <v>7354119</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6577,19 +6057,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6616,10 +6086,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112166963</v>
+        <v>112166953</v>
       </c>
       <c r="B55" t="n">
-        <v>78512</v>
+        <v>89405</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6628,25 +6098,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6656,10 +6126,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>875307.2457561794</v>
+        <v>875437</v>
       </c>
       <c r="R55" t="n">
-        <v>7354263.02871524</v>
+        <v>7354104</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6689,19 +6159,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6728,10 +6188,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112166944</v>
+        <v>112166993</v>
       </c>
       <c r="B56" t="n">
-        <v>89330</v>
+        <v>77515</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6744,21 +6204,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3242</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6768,10 +6228,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>875605.4478862252</v>
+        <v>875305</v>
       </c>
       <c r="R56" t="n">
-        <v>7354179.81695406</v>
+        <v>7354287</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6801,19 +6261,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6840,10 +6290,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112166987</v>
+        <v>112166956</v>
       </c>
       <c r="B57" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6852,25 +6302,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6880,10 +6330,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>875317.6767637208</v>
+        <v>875575</v>
       </c>
       <c r="R57" t="n">
-        <v>7354483.06871422</v>
+        <v>7354017</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -6913,19 +6363,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6952,10 +6392,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112166993</v>
+        <v>112166945</v>
       </c>
       <c r="B58" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6964,25 +6404,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6992,10 +6432,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>875305.2787624763</v>
+        <v>875310</v>
       </c>
       <c r="R58" t="n">
-        <v>7354286.969523014</v>
+        <v>7354255</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7025,19 +6465,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD58" t="b">

--- a/artfynd/A 36117-2023.xlsx
+++ b/artfynd/A 36117-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112167003</v>
+        <v>112166978</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>875669</v>
+        <v>875453</v>
       </c>
       <c r="R2" t="n">
-        <v>7354123</v>
+        <v>7354344</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112166969</v>
+        <v>112166988</v>
       </c>
       <c r="B3" t="n">
-        <v>95532</v>
+        <v>77636</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -794,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>875371</v>
+        <v>875308</v>
       </c>
       <c r="R3" t="n">
-        <v>7354207</v>
+        <v>7354421</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112166992</v>
+        <v>112166981</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>875311</v>
+        <v>875418</v>
       </c>
       <c r="R4" t="n">
-        <v>7354264</v>
+        <v>7354405</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112167007</v>
+        <v>112166985</v>
       </c>
       <c r="B5" t="n">
-        <v>81248</v>
+        <v>77636</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>875455</v>
+        <v>875366</v>
       </c>
       <c r="R5" t="n">
-        <v>7354168</v>
+        <v>7354457</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112166996</v>
+        <v>112166951</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>89539</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1104,21 +1104,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>875494</v>
+        <v>875414</v>
       </c>
       <c r="R6" t="n">
-        <v>7354011</v>
+        <v>7354162</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112166970</v>
+        <v>112166963</v>
       </c>
       <c r="B7" t="n">
-        <v>77268</v>
+        <v>78633</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1202,25 +1202,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>6456</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>875504</v>
+        <v>875307</v>
       </c>
       <c r="R7" t="n">
-        <v>7354110</v>
+        <v>7354263</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112166980</v>
+        <v>112166956</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>78726</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1304,25 +1304,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>875430</v>
+        <v>875575</v>
       </c>
       <c r="R8" t="n">
-        <v>7354389</v>
+        <v>7354017</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112166962</v>
+        <v>112166972</v>
       </c>
       <c r="B9" t="n">
-        <v>78512</v>
+        <v>77636</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1406,25 +1406,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>875311</v>
+        <v>875658</v>
       </c>
       <c r="R9" t="n">
-        <v>7354260</v>
+        <v>7354150</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112166983</v>
+        <v>112166999</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>875412</v>
+        <v>875624</v>
       </c>
       <c r="R10" t="n">
-        <v>7354419</v>
+        <v>7354105</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112166950</v>
+        <v>112166954</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>89559</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1614,21 +1614,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1638,10 +1638,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>875339</v>
+        <v>875436</v>
       </c>
       <c r="R11" t="n">
-        <v>7354232</v>
+        <v>7354249</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112166957</v>
+        <v>112166962</v>
       </c>
       <c r="B12" t="n">
-        <v>89416</v>
+        <v>78633</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1716,21 +1716,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1205</v>
+        <v>6456</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>875607</v>
+        <v>875311</v>
       </c>
       <c r="R12" t="n">
-        <v>7354100</v>
+        <v>7354260</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112166958</v>
+        <v>112166961</v>
       </c>
       <c r="B13" t="n">
-        <v>89416</v>
+        <v>78633</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1818,21 +1818,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1205</v>
+        <v>6456</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>875565</v>
+        <v>875302</v>
       </c>
       <c r="R13" t="n">
-        <v>7354076</v>
+        <v>7354296</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112166981</v>
+        <v>112167003</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1944,10 +1944,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>875418</v>
+        <v>875669</v>
       </c>
       <c r="R14" t="n">
-        <v>7354405</v>
+        <v>7354123</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2006,10 +2006,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112167001</v>
+        <v>112166993</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>875638</v>
+        <v>875305</v>
       </c>
       <c r="R15" t="n">
-        <v>7354114</v>
+        <v>7354287</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112166999</v>
+        <v>112166947</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>89539</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2124,21 +2124,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>875624</v>
+        <v>875383</v>
       </c>
       <c r="R16" t="n">
-        <v>7354105</v>
+        <v>7354469</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2210,10 +2210,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112167010</v>
+        <v>112166983</v>
       </c>
       <c r="B17" t="n">
-        <v>5113</v>
+        <v>77636</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2222,25 +2222,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2250,10 +2250,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>875444</v>
+        <v>875412</v>
       </c>
       <c r="R17" t="n">
-        <v>7354145</v>
+        <v>7354419</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112166951</v>
+        <v>112166995</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>77636</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2328,21 +2328,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>875414</v>
+        <v>875471</v>
       </c>
       <c r="R18" t="n">
-        <v>7354162</v>
+        <v>7354101</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2414,10 +2414,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112166960</v>
+        <v>112166948</v>
       </c>
       <c r="B19" t="n">
-        <v>56414</v>
+        <v>89539</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2430,21 +2430,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2454,10 +2454,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>875481</v>
+        <v>875313</v>
       </c>
       <c r="R19" t="n">
-        <v>7354048</v>
+        <v>7354254</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112166989</v>
+        <v>112167000</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2556,10 +2556,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>875245</v>
+        <v>875638</v>
       </c>
       <c r="R20" t="n">
-        <v>7354354</v>
+        <v>7354114</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112166955</v>
+        <v>112166946</v>
       </c>
       <c r="B21" t="n">
-        <v>78605</v>
+        <v>89503</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2634,21 +2634,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>5447</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2658,10 +2658,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>875571</v>
+        <v>875398</v>
       </c>
       <c r="R21" t="n">
-        <v>7354019</v>
+        <v>7354134</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2720,10 +2720,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112166991</v>
+        <v>112166984</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2760,10 +2760,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>875303</v>
+        <v>875394</v>
       </c>
       <c r="R22" t="n">
-        <v>7354304</v>
+        <v>7354444</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -2822,10 +2822,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112166971</v>
+        <v>112167002</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>875444</v>
+        <v>875618</v>
       </c>
       <c r="R23" t="n">
-        <v>7354104</v>
+        <v>7354107</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -2927,7 +2927,7 @@
         <v>112166997</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112166988</v>
+        <v>112166960</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>56446</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3042,21 +3042,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3066,10 +3066,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>875308</v>
+        <v>875481</v>
       </c>
       <c r="R25" t="n">
-        <v>7354421</v>
+        <v>7354048</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3128,10 +3128,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112166947</v>
+        <v>112166968</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>95687</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3140,25 +3140,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>221945</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3168,10 +3168,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>875383</v>
+        <v>875309</v>
       </c>
       <c r="R26" t="n">
-        <v>7354469</v>
+        <v>7354426</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3230,10 +3230,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112166944</v>
+        <v>112166950</v>
       </c>
       <c r="B27" t="n">
-        <v>89330</v>
+        <v>89539</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3246,21 +3246,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3242</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>875605</v>
+        <v>875339</v>
       </c>
       <c r="R27" t="n">
-        <v>7354180</v>
+        <v>7354232</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112166954</v>
+        <v>112166969</v>
       </c>
       <c r="B28" t="n">
-        <v>89425</v>
+        <v>95687</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3344,25 +3344,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5442</v>
+        <v>221945</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3372,10 +3372,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>875436</v>
+        <v>875371</v>
       </c>
       <c r="R28" t="n">
-        <v>7354249</v>
+        <v>7354207</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112166968</v>
+        <v>112166991</v>
       </c>
       <c r="B29" t="n">
-        <v>95532</v>
+        <v>77636</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3446,25 +3446,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>875309</v>
+        <v>875303</v>
       </c>
       <c r="R29" t="n">
-        <v>7354426</v>
+        <v>7354304</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112166994</v>
+        <v>112166990</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>875456</v>
+        <v>875293</v>
       </c>
       <c r="R30" t="n">
-        <v>7354102</v>
+        <v>7354340</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112167002</v>
+        <v>112166992</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3678,10 +3678,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>875618</v>
+        <v>875311</v>
       </c>
       <c r="R31" t="n">
-        <v>7354107</v>
+        <v>7354264</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112166973</v>
+        <v>112166957</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>89550</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3752,25 +3752,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>875622</v>
+        <v>875607</v>
       </c>
       <c r="R32" t="n">
-        <v>7354036</v>
+        <v>7354100</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -3842,10 +3842,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112166961</v>
+        <v>112166987</v>
       </c>
       <c r="B33" t="n">
-        <v>78512</v>
+        <v>77636</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3854,25 +3854,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3882,10 +3882,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>875302</v>
+        <v>875318</v>
       </c>
       <c r="R33" t="n">
-        <v>7354296</v>
+        <v>7354483</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112166977</v>
+        <v>112167010</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>5113</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3956,25 +3956,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>875455</v>
+        <v>875444</v>
       </c>
       <c r="R34" t="n">
-        <v>7354165</v>
+        <v>7354145</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4046,10 +4046,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112166948</v>
+        <v>112166998</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>77636</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4062,21 +4062,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4086,10 +4086,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>875313</v>
+        <v>875596</v>
       </c>
       <c r="R35" t="n">
-        <v>7354254</v>
+        <v>7354103</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112166979</v>
+        <v>112166975</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4188,10 +4188,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>875434</v>
+        <v>875610</v>
       </c>
       <c r="R36" t="n">
-        <v>7354360</v>
+        <v>7354119</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4250,10 +4250,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112166986</v>
+        <v>112166955</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>78726</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4262,25 +4262,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>875315</v>
+        <v>875571</v>
       </c>
       <c r="R37" t="n">
-        <v>7354476</v>
+        <v>7354019</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112166959</v>
+        <v>112167007</v>
       </c>
       <c r="B38" t="n">
-        <v>89416</v>
+        <v>81371</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4364,25 +4364,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1205</v>
+        <v>1312</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4392,10 +4392,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>875558</v>
+        <v>875455</v>
       </c>
       <c r="R38" t="n">
-        <v>7354079</v>
+        <v>7354168</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112167006</v>
+        <v>112166971</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4494,10 +4494,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>875668</v>
+        <v>875444</v>
       </c>
       <c r="R39" t="n">
-        <v>7354134</v>
+        <v>7354104</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112166998</v>
+        <v>112166959</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>89550</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4568,25 +4568,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4596,10 +4596,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>875596</v>
+        <v>875558</v>
       </c>
       <c r="R40" t="n">
-        <v>7354103</v>
+        <v>7354079</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -4658,10 +4658,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112166972</v>
+        <v>112166989</v>
       </c>
       <c r="B41" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4698,10 +4698,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>875658</v>
+        <v>875245</v>
       </c>
       <c r="R41" t="n">
-        <v>7354150</v>
+        <v>7354354</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -4760,10 +4760,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112166984</v>
+        <v>112166970</v>
       </c>
       <c r="B42" t="n">
-        <v>77515</v>
+        <v>77389</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4776,21 +4776,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4800,10 +4800,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>875394</v>
+        <v>875504</v>
       </c>
       <c r="R42" t="n">
-        <v>7354444</v>
+        <v>7354110</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -4862,10 +4862,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112166985</v>
+        <v>112167006</v>
       </c>
       <c r="B43" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -4902,10 +4902,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>875366</v>
+        <v>875668</v>
       </c>
       <c r="R43" t="n">
-        <v>7354457</v>
+        <v>7354134</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -4964,10 +4964,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112166978</v>
+        <v>112166953</v>
       </c>
       <c r="B44" t="n">
-        <v>77515</v>
+        <v>89539</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -4980,21 +4980,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5004,10 +5004,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>875453</v>
+        <v>875437</v>
       </c>
       <c r="R44" t="n">
-        <v>7354344</v>
+        <v>7354104</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112166990</v>
+        <v>112167008</v>
       </c>
       <c r="B45" t="n">
-        <v>77515</v>
+        <v>78732</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5078,20 +5078,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>875293</v>
+        <v>875535</v>
       </c>
       <c r="R45" t="n">
-        <v>7354340</v>
+        <v>7353979</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5168,10 +5168,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112166963</v>
+        <v>112166973</v>
       </c>
       <c r="B46" t="n">
-        <v>78512</v>
+        <v>77636</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5180,25 +5180,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5208,10 +5208,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>875307</v>
+        <v>875622</v>
       </c>
       <c r="R46" t="n">
-        <v>7354263</v>
+        <v>7354036</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112166974</v>
+        <v>112166945</v>
       </c>
       <c r="B47" t="n">
-        <v>77515</v>
+        <v>89503</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5282,25 +5282,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5310,10 +5310,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>875578</v>
+        <v>875310</v>
       </c>
       <c r="R47" t="n">
-        <v>7354183</v>
+        <v>7354255</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5372,10 +5372,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112166982</v>
+        <v>112166974</v>
       </c>
       <c r="B48" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>875420</v>
+        <v>875578</v>
       </c>
       <c r="R48" t="n">
-        <v>7354430</v>
+        <v>7354183</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5474,10 +5474,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112167008</v>
+        <v>112166994</v>
       </c>
       <c r="B49" t="n">
-        <v>78611</v>
+        <v>77636</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5486,20 +5486,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5514,10 +5514,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>875535</v>
+        <v>875456</v>
       </c>
       <c r="R49" t="n">
-        <v>7353979</v>
+        <v>7354102</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5576,10 +5576,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112166946</v>
+        <v>112166980</v>
       </c>
       <c r="B50" t="n">
-        <v>89369</v>
+        <v>77636</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5588,25 +5588,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5616,10 +5616,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>875398</v>
+        <v>875430</v>
       </c>
       <c r="R50" t="n">
-        <v>7354134</v>
+        <v>7354389</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -5678,10 +5678,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112166987</v>
+        <v>112166944</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>89464</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5694,21 +5694,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>3242</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>875318</v>
+        <v>875605</v>
       </c>
       <c r="R51" t="n">
-        <v>7354483</v>
+        <v>7354180</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -5780,10 +5780,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112166995</v>
+        <v>112166964</v>
       </c>
       <c r="B52" t="n">
-        <v>77515</v>
+        <v>78633</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -5792,25 +5792,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -5820,10 +5820,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>875471</v>
+        <v>875313</v>
       </c>
       <c r="R52" t="n">
-        <v>7354101</v>
+        <v>7354254</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -5882,10 +5882,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112166964</v>
+        <v>112166982</v>
       </c>
       <c r="B53" t="n">
-        <v>78512</v>
+        <v>77636</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -5894,25 +5894,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -5922,10 +5922,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>875313</v>
+        <v>875420</v>
       </c>
       <c r="R53" t="n">
-        <v>7354254</v>
+        <v>7354430</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -5984,10 +5984,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112166975</v>
+        <v>112166996</v>
       </c>
       <c r="B54" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>875610</v>
+        <v>875494</v>
       </c>
       <c r="R54" t="n">
-        <v>7354119</v>
+        <v>7354011</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6086,10 +6086,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112166953</v>
+        <v>112166986</v>
       </c>
       <c r="B55" t="n">
-        <v>89405</v>
+        <v>77636</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6102,21 +6102,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6126,10 +6126,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>875437</v>
+        <v>875315</v>
       </c>
       <c r="R55" t="n">
-        <v>7354104</v>
+        <v>7354476</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6188,10 +6188,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112166993</v>
+        <v>112166977</v>
       </c>
       <c r="B56" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6228,10 +6228,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>875305</v>
+        <v>875455</v>
       </c>
       <c r="R56" t="n">
-        <v>7354287</v>
+        <v>7354165</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6290,10 +6290,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112166956</v>
+        <v>112166979</v>
       </c>
       <c r="B57" t="n">
-        <v>78605</v>
+        <v>77636</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6302,25 +6302,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>875575</v>
+        <v>875434</v>
       </c>
       <c r="R57" t="n">
-        <v>7354017</v>
+        <v>7354360</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -6392,10 +6392,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112166945</v>
+        <v>112166958</v>
       </c>
       <c r="B58" t="n">
-        <v>89369</v>
+        <v>89550</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6408,21 +6408,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5447</v>
+        <v>1205</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6432,10 +6432,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>875310</v>
+        <v>875565</v>
       </c>
       <c r="R58" t="n">
-        <v>7354255</v>
+        <v>7354076</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>

--- a/artfynd/A 36117-2023.xlsx
+++ b/artfynd/A 36117-2023.xlsx
@@ -6290,10 +6290,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112166979</v>
+        <v>112166958</v>
       </c>
       <c r="B57" t="n">
-        <v>77636</v>
+        <v>89550</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6302,25 +6302,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>875434</v>
+        <v>875565</v>
       </c>
       <c r="R57" t="n">
-        <v>7354360</v>
+        <v>7354076</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -6392,10 +6392,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112166958</v>
+        <v>112166979</v>
       </c>
       <c r="B58" t="n">
-        <v>89550</v>
+        <v>77636</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6404,25 +6404,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1205</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6432,10 +6432,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>875565</v>
+        <v>875434</v>
       </c>
       <c r="R58" t="n">
-        <v>7354076</v>
+        <v>7354360</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>

--- a/artfynd/A 36117-2023.xlsx
+++ b/artfynd/A 36117-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112166978</v>
+        <v>112167010</v>
       </c>
       <c r="B2" t="n">
-        <v>77636</v>
+        <v>5113</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>875453</v>
+        <v>875444</v>
       </c>
       <c r="R2" t="n">
-        <v>7354344</v>
+        <v>7354145</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112166988</v>
+        <v>112166975</v>
       </c>
       <c r="B3" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>875308</v>
+        <v>875610</v>
       </c>
       <c r="R3" t="n">
-        <v>7354421</v>
+        <v>7354119</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112166981</v>
+        <v>112166974</v>
       </c>
       <c r="B4" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>875418</v>
+        <v>875578</v>
       </c>
       <c r="R4" t="n">
-        <v>7354405</v>
+        <v>7354183</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112166985</v>
+        <v>112166972</v>
       </c>
       <c r="B5" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>875366</v>
+        <v>875658</v>
       </c>
       <c r="R5" t="n">
-        <v>7354457</v>
+        <v>7354150</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1091,7 +1091,7 @@
         <v>112166951</v>
       </c>
       <c r="B6" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112166963</v>
+        <v>112166999</v>
       </c>
       <c r="B7" t="n">
-        <v>78633</v>
+        <v>77650</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1202,25 +1202,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>875307</v>
+        <v>875624</v>
       </c>
       <c r="R7" t="n">
-        <v>7354263</v>
+        <v>7354105</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112166956</v>
+        <v>112166960</v>
       </c>
       <c r="B8" t="n">
-        <v>78726</v>
+        <v>56446</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1304,25 +1304,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>875575</v>
+        <v>875481</v>
       </c>
       <c r="R8" t="n">
-        <v>7354017</v>
+        <v>7354048</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112166972</v>
+        <v>112166945</v>
       </c>
       <c r="B9" t="n">
-        <v>77636</v>
+        <v>89517</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1406,25 +1406,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>875658</v>
+        <v>875310</v>
       </c>
       <c r="R9" t="n">
-        <v>7354150</v>
+        <v>7354255</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112166999</v>
+        <v>112166988</v>
       </c>
       <c r="B10" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>875624</v>
+        <v>875308</v>
       </c>
       <c r="R10" t="n">
-        <v>7354105</v>
+        <v>7354421</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112166954</v>
+        <v>112166961</v>
       </c>
       <c r="B11" t="n">
-        <v>89559</v>
+        <v>78647</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1610,25 +1610,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5442</v>
+        <v>6456</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1638,10 +1638,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>875436</v>
+        <v>875302</v>
       </c>
       <c r="R11" t="n">
-        <v>7354249</v>
+        <v>7354296</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112166962</v>
+        <v>112166964</v>
       </c>
       <c r="B12" t="n">
-        <v>78633</v>
+        <v>78647</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>875311</v>
+        <v>875313</v>
       </c>
       <c r="R12" t="n">
-        <v>7354260</v>
+        <v>7354254</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112166961</v>
+        <v>112167003</v>
       </c>
       <c r="B13" t="n">
-        <v>78633</v>
+        <v>77650</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1814,25 +1814,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>875302</v>
+        <v>875669</v>
       </c>
       <c r="R13" t="n">
-        <v>7354296</v>
+        <v>7354123</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112167003</v>
+        <v>112167000</v>
       </c>
       <c r="B14" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1944,10 +1944,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>875669</v>
+        <v>875638</v>
       </c>
       <c r="R14" t="n">
-        <v>7354123</v>
+        <v>7354114</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2006,10 +2006,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112166993</v>
+        <v>112166946</v>
       </c>
       <c r="B15" t="n">
-        <v>77636</v>
+        <v>89517</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2018,25 +2018,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>875305</v>
+        <v>875398</v>
       </c>
       <c r="R15" t="n">
-        <v>7354287</v>
+        <v>7354134</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112166947</v>
+        <v>112166955</v>
       </c>
       <c r="B16" t="n">
-        <v>89539</v>
+        <v>78740</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2120,25 +2120,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>875383</v>
+        <v>875571</v>
       </c>
       <c r="R16" t="n">
-        <v>7354469</v>
+        <v>7354019</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2210,10 +2210,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112166983</v>
+        <v>112166977</v>
       </c>
       <c r="B17" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2250,10 +2250,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>875412</v>
+        <v>875455</v>
       </c>
       <c r="R17" t="n">
-        <v>7354419</v>
+        <v>7354165</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112166995</v>
+        <v>112166962</v>
       </c>
       <c r="B18" t="n">
-        <v>77636</v>
+        <v>78647</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2324,25 +2324,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>875471</v>
+        <v>875311</v>
       </c>
       <c r="R18" t="n">
-        <v>7354101</v>
+        <v>7354260</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2414,10 +2414,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112166948</v>
+        <v>112166982</v>
       </c>
       <c r="B19" t="n">
-        <v>89539</v>
+        <v>77650</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2430,21 +2430,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2454,10 +2454,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>875313</v>
+        <v>875420</v>
       </c>
       <c r="R19" t="n">
-        <v>7354254</v>
+        <v>7354430</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112167000</v>
+        <v>112166981</v>
       </c>
       <c r="B20" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2556,10 +2556,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>875638</v>
+        <v>875418</v>
       </c>
       <c r="R20" t="n">
-        <v>7354114</v>
+        <v>7354405</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112166946</v>
+        <v>112166947</v>
       </c>
       <c r="B21" t="n">
-        <v>89503</v>
+        <v>89553</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2630,25 +2630,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2658,10 +2658,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>875398</v>
+        <v>875383</v>
       </c>
       <c r="R21" t="n">
-        <v>7354134</v>
+        <v>7354469</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2720,10 +2720,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112166984</v>
+        <v>112166971</v>
       </c>
       <c r="B22" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2760,10 +2760,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>875394</v>
+        <v>875444</v>
       </c>
       <c r="R22" t="n">
-        <v>7354444</v>
+        <v>7354104</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -2822,10 +2822,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112167002</v>
+        <v>112166959</v>
       </c>
       <c r="B23" t="n">
-        <v>77636</v>
+        <v>89564</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2834,25 +2834,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>875618</v>
+        <v>875558</v>
       </c>
       <c r="R23" t="n">
-        <v>7354107</v>
+        <v>7354079</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112166997</v>
+        <v>112166986</v>
       </c>
       <c r="B24" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>875624</v>
+        <v>875315</v>
       </c>
       <c r="R24" t="n">
-        <v>7354054</v>
+        <v>7354476</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112166960</v>
+        <v>112166997</v>
       </c>
       <c r="B25" t="n">
-        <v>56446</v>
+        <v>77650</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3042,21 +3042,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3066,10 +3066,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>875481</v>
+        <v>875624</v>
       </c>
       <c r="R25" t="n">
-        <v>7354048</v>
+        <v>7354054</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3128,10 +3128,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112166968</v>
+        <v>112166993</v>
       </c>
       <c r="B26" t="n">
-        <v>95687</v>
+        <v>77650</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3140,25 +3140,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3168,10 +3168,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>875309</v>
+        <v>875305</v>
       </c>
       <c r="R26" t="n">
-        <v>7354426</v>
+        <v>7354287</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3230,10 +3230,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112166950</v>
+        <v>112166963</v>
       </c>
       <c r="B27" t="n">
-        <v>89539</v>
+        <v>78647</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3242,25 +3242,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>875339</v>
+        <v>875307</v>
       </c>
       <c r="R27" t="n">
-        <v>7354232</v>
+        <v>7354263</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112166969</v>
+        <v>112166954</v>
       </c>
       <c r="B28" t="n">
-        <v>95687</v>
+        <v>89573</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3344,25 +3344,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221945</v>
+        <v>5442</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3372,10 +3372,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>875371</v>
+        <v>875436</v>
       </c>
       <c r="R28" t="n">
-        <v>7354207</v>
+        <v>7354249</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112166991</v>
+        <v>112166985</v>
       </c>
       <c r="B29" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>875303</v>
+        <v>875366</v>
       </c>
       <c r="R29" t="n">
-        <v>7354304</v>
+        <v>7354457</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112166990</v>
+        <v>112166998</v>
       </c>
       <c r="B30" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>875293</v>
+        <v>875596</v>
       </c>
       <c r="R30" t="n">
-        <v>7354340</v>
+        <v>7354103</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112166992</v>
+        <v>112166950</v>
       </c>
       <c r="B31" t="n">
-        <v>77636</v>
+        <v>89553</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3654,21 +3654,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3678,10 +3678,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>875311</v>
+        <v>875339</v>
       </c>
       <c r="R31" t="n">
-        <v>7354264</v>
+        <v>7354232</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -3743,7 +3743,7 @@
         <v>112166957</v>
       </c>
       <c r="B32" t="n">
-        <v>89550</v>
+        <v>89564</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3842,10 +3842,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112166987</v>
+        <v>112166983</v>
       </c>
       <c r="B33" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3882,10 +3882,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>875318</v>
+        <v>875412</v>
       </c>
       <c r="R33" t="n">
-        <v>7354483</v>
+        <v>7354419</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112167010</v>
+        <v>112166979</v>
       </c>
       <c r="B34" t="n">
-        <v>5113</v>
+        <v>77650</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3956,25 +3956,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>875444</v>
+        <v>875434</v>
       </c>
       <c r="R34" t="n">
-        <v>7354145</v>
+        <v>7354360</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4046,10 +4046,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112166998</v>
+        <v>112166990</v>
       </c>
       <c r="B35" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4086,10 +4086,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>875596</v>
+        <v>875293</v>
       </c>
       <c r="R35" t="n">
-        <v>7354103</v>
+        <v>7354340</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112166975</v>
+        <v>112166980</v>
       </c>
       <c r="B36" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4188,10 +4188,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>875610</v>
+        <v>875430</v>
       </c>
       <c r="R36" t="n">
-        <v>7354119</v>
+        <v>7354389</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4250,10 +4250,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112166955</v>
+        <v>112166984</v>
       </c>
       <c r="B37" t="n">
-        <v>78726</v>
+        <v>77650</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4262,25 +4262,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>875571</v>
+        <v>875394</v>
       </c>
       <c r="R37" t="n">
-        <v>7354019</v>
+        <v>7354444</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112167007</v>
+        <v>112166978</v>
       </c>
       <c r="B38" t="n">
-        <v>81371</v>
+        <v>77650</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4368,21 +4368,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4392,10 +4392,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>875455</v>
+        <v>875453</v>
       </c>
       <c r="R38" t="n">
-        <v>7354168</v>
+        <v>7354344</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112166971</v>
+        <v>112166953</v>
       </c>
       <c r="B39" t="n">
-        <v>77636</v>
+        <v>89553</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4470,21 +4470,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4494,7 +4494,7 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>875444</v>
+        <v>875437</v>
       </c>
       <c r="R39" t="n">
         <v>7354104</v>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112166959</v>
+        <v>112166991</v>
       </c>
       <c r="B40" t="n">
-        <v>89550</v>
+        <v>77650</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4568,25 +4568,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1205</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4596,10 +4596,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>875558</v>
+        <v>875303</v>
       </c>
       <c r="R40" t="n">
-        <v>7354079</v>
+        <v>7354304</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -4658,10 +4658,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112166989</v>
+        <v>112166992</v>
       </c>
       <c r="B41" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4698,10 +4698,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>875245</v>
+        <v>875311</v>
       </c>
       <c r="R41" t="n">
-        <v>7354354</v>
+        <v>7354264</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -4760,10 +4760,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112166970</v>
+        <v>112166989</v>
       </c>
       <c r="B42" t="n">
-        <v>77389</v>
+        <v>77650</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4776,21 +4776,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4800,10 +4800,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>875504</v>
+        <v>875245</v>
       </c>
       <c r="R42" t="n">
-        <v>7354110</v>
+        <v>7354354</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -4862,10 +4862,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112167006</v>
+        <v>112166970</v>
       </c>
       <c r="B43" t="n">
-        <v>77636</v>
+        <v>77403</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -4878,21 +4878,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4902,10 +4902,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>875668</v>
+        <v>875504</v>
       </c>
       <c r="R43" t="n">
-        <v>7354134</v>
+        <v>7354110</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -4964,10 +4964,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112166953</v>
+        <v>112166968</v>
       </c>
       <c r="B44" t="n">
-        <v>89539</v>
+        <v>95701</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -4976,25 +4976,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>221945</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5004,10 +5004,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>875437</v>
+        <v>875309</v>
       </c>
       <c r="R44" t="n">
-        <v>7354104</v>
+        <v>7354426</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112167008</v>
+        <v>112166987</v>
       </c>
       <c r="B45" t="n">
-        <v>78732</v>
+        <v>77650</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5078,20 +5078,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>875535</v>
+        <v>875318</v>
       </c>
       <c r="R45" t="n">
-        <v>7353979</v>
+        <v>7354483</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5168,10 +5168,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112166973</v>
+        <v>112166958</v>
       </c>
       <c r="B46" t="n">
-        <v>77636</v>
+        <v>89564</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5180,25 +5180,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5208,10 +5208,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>875622</v>
+        <v>875565</v>
       </c>
       <c r="R46" t="n">
-        <v>7354036</v>
+        <v>7354076</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112166945</v>
+        <v>112166994</v>
       </c>
       <c r="B47" t="n">
-        <v>89503</v>
+        <v>77650</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5282,25 +5282,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5310,10 +5310,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>875310</v>
+        <v>875456</v>
       </c>
       <c r="R47" t="n">
-        <v>7354255</v>
+        <v>7354102</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5372,10 +5372,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112166974</v>
+        <v>112166973</v>
       </c>
       <c r="B48" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>875578</v>
+        <v>875622</v>
       </c>
       <c r="R48" t="n">
-        <v>7354183</v>
+        <v>7354036</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5474,10 +5474,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112166994</v>
+        <v>112166944</v>
       </c>
       <c r="B49" t="n">
-        <v>77636</v>
+        <v>89478</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5490,21 +5490,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>3242</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5514,10 +5514,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>875456</v>
+        <v>875605</v>
       </c>
       <c r="R49" t="n">
-        <v>7354102</v>
+        <v>7354180</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5576,10 +5576,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112166980</v>
+        <v>112166969</v>
       </c>
       <c r="B50" t="n">
-        <v>77636</v>
+        <v>95701</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5588,25 +5588,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5616,10 +5616,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>875430</v>
+        <v>875371</v>
       </c>
       <c r="R50" t="n">
-        <v>7354389</v>
+        <v>7354207</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -5678,10 +5678,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112166944</v>
+        <v>112167007</v>
       </c>
       <c r="B51" t="n">
-        <v>89464</v>
+        <v>81385</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5694,21 +5694,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3242</v>
+        <v>1312</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>875605</v>
+        <v>875455</v>
       </c>
       <c r="R51" t="n">
-        <v>7354180</v>
+        <v>7354168</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -5780,10 +5780,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112166964</v>
+        <v>112166995</v>
       </c>
       <c r="B52" t="n">
-        <v>78633</v>
+        <v>77650</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -5792,25 +5792,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -5820,10 +5820,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>875313</v>
+        <v>875471</v>
       </c>
       <c r="R52" t="n">
-        <v>7354254</v>
+        <v>7354101</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -5882,10 +5882,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112166982</v>
+        <v>112166996</v>
       </c>
       <c r="B53" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -5922,10 +5922,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>875420</v>
+        <v>875494</v>
       </c>
       <c r="R53" t="n">
-        <v>7354430</v>
+        <v>7354011</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -5984,10 +5984,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112166996</v>
+        <v>112167006</v>
       </c>
       <c r="B54" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>875494</v>
+        <v>875668</v>
       </c>
       <c r="R54" t="n">
-        <v>7354011</v>
+        <v>7354134</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6086,10 +6086,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112166986</v>
+        <v>112167002</v>
       </c>
       <c r="B55" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6126,10 +6126,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>875315</v>
+        <v>875618</v>
       </c>
       <c r="R55" t="n">
-        <v>7354476</v>
+        <v>7354107</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6188,10 +6188,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112166977</v>
+        <v>112166948</v>
       </c>
       <c r="B56" t="n">
-        <v>77636</v>
+        <v>89553</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6204,21 +6204,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6228,10 +6228,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>875455</v>
+        <v>875313</v>
       </c>
       <c r="R56" t="n">
-        <v>7354165</v>
+        <v>7354254</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6290,10 +6290,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112166958</v>
+        <v>112166956</v>
       </c>
       <c r="B57" t="n">
-        <v>89550</v>
+        <v>78740</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6306,21 +6306,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1205</v>
+        <v>6462</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>875565</v>
+        <v>875575</v>
       </c>
       <c r="R57" t="n">
-        <v>7354076</v>
+        <v>7354017</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -6392,10 +6392,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112166979</v>
+        <v>112167008</v>
       </c>
       <c r="B58" t="n">
-        <v>77636</v>
+        <v>78746</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6404,20 +6404,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -6432,10 +6432,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>875434</v>
+        <v>875535</v>
       </c>
       <c r="R58" t="n">
-        <v>7354360</v>
+        <v>7353979</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>

--- a/artfynd/A 36117-2023.xlsx
+++ b/artfynd/A 36117-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112167010</v>
+        <v>112167002</v>
       </c>
       <c r="B2" t="n">
-        <v>5113</v>
+        <v>77650</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>875444</v>
+        <v>875618</v>
       </c>
       <c r="R2" t="n">
-        <v>7354145</v>
+        <v>7354107</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112166975</v>
+        <v>112166964</v>
       </c>
       <c r="B3" t="n">
-        <v>77650</v>
+        <v>78647</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -794,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>875610</v>
+        <v>875313</v>
       </c>
       <c r="R3" t="n">
-        <v>7354119</v>
+        <v>7354254</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112166974</v>
+        <v>112166979</v>
       </c>
       <c r="B4" t="n">
         <v>77650</v>
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>875578</v>
+        <v>875434</v>
       </c>
       <c r="R4" t="n">
-        <v>7354183</v>
+        <v>7354360</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112166972</v>
+        <v>112166957</v>
       </c>
       <c r="B5" t="n">
-        <v>77650</v>
+        <v>89564</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -998,25 +998,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>875658</v>
+        <v>875607</v>
       </c>
       <c r="R5" t="n">
-        <v>7354150</v>
+        <v>7354100</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112166951</v>
+        <v>112166980</v>
       </c>
       <c r="B6" t="n">
-        <v>89553</v>
+        <v>77650</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1104,21 +1104,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>875414</v>
+        <v>875430</v>
       </c>
       <c r="R6" t="n">
-        <v>7354162</v>
+        <v>7354389</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112166999</v>
+        <v>112166995</v>
       </c>
       <c r="B7" t="n">
         <v>77650</v>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>875624</v>
+        <v>875471</v>
       </c>
       <c r="R7" t="n">
-        <v>7354105</v>
+        <v>7354101</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112166960</v>
+        <v>112166954</v>
       </c>
       <c r="B8" t="n">
-        <v>56446</v>
+        <v>89573</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1308,21 +1308,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>5442</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>875481</v>
+        <v>875436</v>
       </c>
       <c r="R8" t="n">
-        <v>7354048</v>
+        <v>7354249</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112166945</v>
+        <v>112166999</v>
       </c>
       <c r="B9" t="n">
-        <v>89517</v>
+        <v>77650</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1406,25 +1406,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>875310</v>
+        <v>875624</v>
       </c>
       <c r="R9" t="n">
-        <v>7354255</v>
+        <v>7354105</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112166988</v>
+        <v>112166978</v>
       </c>
       <c r="B10" t="n">
         <v>77650</v>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>875308</v>
+        <v>875453</v>
       </c>
       <c r="R10" t="n">
-        <v>7354421</v>
+        <v>7354344</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112166961</v>
+        <v>112166984</v>
       </c>
       <c r="B11" t="n">
-        <v>78647</v>
+        <v>77650</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1610,25 +1610,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1638,10 +1638,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>875302</v>
+        <v>875394</v>
       </c>
       <c r="R11" t="n">
-        <v>7354296</v>
+        <v>7354444</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112166964</v>
+        <v>112166947</v>
       </c>
       <c r="B12" t="n">
-        <v>78647</v>
+        <v>89553</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1712,25 +1712,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>875313</v>
+        <v>875383</v>
       </c>
       <c r="R12" t="n">
-        <v>7354254</v>
+        <v>7354469</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112167003</v>
+        <v>112166987</v>
       </c>
       <c r="B13" t="n">
         <v>77650</v>
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>875669</v>
+        <v>875318</v>
       </c>
       <c r="R13" t="n">
-        <v>7354123</v>
+        <v>7354483</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112167000</v>
+        <v>112166974</v>
       </c>
       <c r="B14" t="n">
         <v>77650</v>
@@ -1944,10 +1944,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>875638</v>
+        <v>875578</v>
       </c>
       <c r="R14" t="n">
-        <v>7354114</v>
+        <v>7354183</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2006,10 +2006,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112166946</v>
+        <v>112167010</v>
       </c>
       <c r="B15" t="n">
-        <v>89517</v>
+        <v>5113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2022,21 +2022,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>100526</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>875398</v>
+        <v>875444</v>
       </c>
       <c r="R15" t="n">
-        <v>7354134</v>
+        <v>7354145</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112166955</v>
+        <v>112167000</v>
       </c>
       <c r="B16" t="n">
-        <v>78740</v>
+        <v>77650</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2120,25 +2120,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>875571</v>
+        <v>875638</v>
       </c>
       <c r="R16" t="n">
-        <v>7354019</v>
+        <v>7354114</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112166977</v>
+        <v>112166998</v>
       </c>
       <c r="B17" t="n">
         <v>77650</v>
@@ -2250,10 +2250,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>875455</v>
+        <v>875596</v>
       </c>
       <c r="R17" t="n">
-        <v>7354165</v>
+        <v>7354103</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112166962</v>
+        <v>112166982</v>
       </c>
       <c r="B18" t="n">
-        <v>78647</v>
+        <v>77650</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2324,25 +2324,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>875311</v>
+        <v>875420</v>
       </c>
       <c r="R18" t="n">
-        <v>7354260</v>
+        <v>7354430</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112166982</v>
+        <v>112166992</v>
       </c>
       <c r="B19" t="n">
         <v>77650</v>
@@ -2454,10 +2454,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>875420</v>
+        <v>875311</v>
       </c>
       <c r="R19" t="n">
-        <v>7354430</v>
+        <v>7354264</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112166981</v>
+        <v>112166993</v>
       </c>
       <c r="B20" t="n">
         <v>77650</v>
@@ -2556,10 +2556,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>875418</v>
+        <v>875305</v>
       </c>
       <c r="R20" t="n">
-        <v>7354405</v>
+        <v>7354287</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112166947</v>
+        <v>112166970</v>
       </c>
       <c r="B21" t="n">
-        <v>89553</v>
+        <v>77403</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2634,21 +2634,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>228912</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2658,10 +2658,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>875383</v>
+        <v>875504</v>
       </c>
       <c r="R21" t="n">
-        <v>7354469</v>
+        <v>7354110</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112166971</v>
+        <v>112167003</v>
       </c>
       <c r="B22" t="n">
         <v>77650</v>
@@ -2760,10 +2760,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>875444</v>
+        <v>875669</v>
       </c>
       <c r="R22" t="n">
-        <v>7354104</v>
+        <v>7354123</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -2822,10 +2822,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112166959</v>
+        <v>112166945</v>
       </c>
       <c r="B23" t="n">
-        <v>89564</v>
+        <v>89517</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2838,21 +2838,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1205</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>875558</v>
+        <v>875310</v>
       </c>
       <c r="R23" t="n">
-        <v>7354079</v>
+        <v>7354255</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112166986</v>
+        <v>112166968</v>
       </c>
       <c r="B24" t="n">
-        <v>77650</v>
+        <v>95701</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2936,25 +2936,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>875315</v>
+        <v>875309</v>
       </c>
       <c r="R24" t="n">
-        <v>7354476</v>
+        <v>7354426</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112166997</v>
+        <v>112166969</v>
       </c>
       <c r="B25" t="n">
-        <v>77650</v>
+        <v>95701</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3038,25 +3038,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3066,10 +3066,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>875624</v>
+        <v>875371</v>
       </c>
       <c r="R25" t="n">
-        <v>7354054</v>
+        <v>7354207</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112166993</v>
+        <v>112166983</v>
       </c>
       <c r="B26" t="n">
         <v>77650</v>
@@ -3168,10 +3168,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>875305</v>
+        <v>875412</v>
       </c>
       <c r="R26" t="n">
-        <v>7354287</v>
+        <v>7354419</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3230,10 +3230,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112166963</v>
+        <v>112166981</v>
       </c>
       <c r="B27" t="n">
-        <v>78647</v>
+        <v>77650</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3242,25 +3242,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>875307</v>
+        <v>875418</v>
       </c>
       <c r="R27" t="n">
-        <v>7354263</v>
+        <v>7354405</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112166954</v>
+        <v>112166953</v>
       </c>
       <c r="B28" t="n">
-        <v>89573</v>
+        <v>89553</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3348,21 +3348,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3372,10 +3372,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>875436</v>
+        <v>875437</v>
       </c>
       <c r="R28" t="n">
-        <v>7354249</v>
+        <v>7354104</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112166985</v>
+        <v>112166990</v>
       </c>
       <c r="B29" t="n">
         <v>77650</v>
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>875366</v>
+        <v>875293</v>
       </c>
       <c r="R29" t="n">
-        <v>7354457</v>
+        <v>7354340</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112166998</v>
+        <v>112166956</v>
       </c>
       <c r="B30" t="n">
-        <v>77650</v>
+        <v>78740</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3548,25 +3548,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>875596</v>
+        <v>875575</v>
       </c>
       <c r="R30" t="n">
-        <v>7354103</v>
+        <v>7354017</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112166950</v>
+        <v>112166960</v>
       </c>
       <c r="B31" t="n">
-        <v>89553</v>
+        <v>56446</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3654,21 +3654,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3678,10 +3678,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>875339</v>
+        <v>875481</v>
       </c>
       <c r="R31" t="n">
-        <v>7354232</v>
+        <v>7354048</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112166957</v>
+        <v>112166958</v>
       </c>
       <c r="B32" t="n">
         <v>89564</v>
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>875607</v>
+        <v>875565</v>
       </c>
       <c r="R32" t="n">
-        <v>7354100</v>
+        <v>7354076</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112166983</v>
+        <v>112166986</v>
       </c>
       <c r="B33" t="n">
         <v>77650</v>
@@ -3882,10 +3882,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>875412</v>
+        <v>875315</v>
       </c>
       <c r="R33" t="n">
-        <v>7354419</v>
+        <v>7354476</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112166979</v>
+        <v>112166961</v>
       </c>
       <c r="B34" t="n">
-        <v>77650</v>
+        <v>78647</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3956,25 +3956,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>875434</v>
+        <v>875302</v>
       </c>
       <c r="R34" t="n">
-        <v>7354360</v>
+        <v>7354296</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4046,10 +4046,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112166990</v>
+        <v>112166951</v>
       </c>
       <c r="B35" t="n">
-        <v>77650</v>
+        <v>89553</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4062,21 +4062,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4086,10 +4086,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>875293</v>
+        <v>875414</v>
       </c>
       <c r="R35" t="n">
-        <v>7354340</v>
+        <v>7354162</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112166980</v>
+        <v>112166962</v>
       </c>
       <c r="B36" t="n">
-        <v>77650</v>
+        <v>78647</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4160,25 +4160,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4188,10 +4188,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>875430</v>
+        <v>875311</v>
       </c>
       <c r="R36" t="n">
-        <v>7354389</v>
+        <v>7354260</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112166984</v>
+        <v>112166973</v>
       </c>
       <c r="B37" t="n">
         <v>77650</v>
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>875394</v>
+        <v>875622</v>
       </c>
       <c r="R37" t="n">
-        <v>7354444</v>
+        <v>7354036</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112166978</v>
+        <v>112166944</v>
       </c>
       <c r="B38" t="n">
-        <v>77650</v>
+        <v>89478</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4368,21 +4368,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>3242</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4392,10 +4392,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>875453</v>
+        <v>875605</v>
       </c>
       <c r="R38" t="n">
-        <v>7354344</v>
+        <v>7354180</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112166953</v>
+        <v>112166963</v>
       </c>
       <c r="B39" t="n">
-        <v>89553</v>
+        <v>78647</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4466,25 +4466,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4494,10 +4494,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>875437</v>
+        <v>875307</v>
       </c>
       <c r="R39" t="n">
-        <v>7354104</v>
+        <v>7354263</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112166991</v>
+        <v>112167008</v>
       </c>
       <c r="B40" t="n">
-        <v>77650</v>
+        <v>78746</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4568,20 +4568,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4596,10 +4596,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>875303</v>
+        <v>875535</v>
       </c>
       <c r="R40" t="n">
-        <v>7354304</v>
+        <v>7353979</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112166992</v>
+        <v>112166994</v>
       </c>
       <c r="B41" t="n">
         <v>77650</v>
@@ -4698,10 +4698,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>875311</v>
+        <v>875456</v>
       </c>
       <c r="R41" t="n">
-        <v>7354264</v>
+        <v>7354102</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112166989</v>
+        <v>112167006</v>
       </c>
       <c r="B42" t="n">
         <v>77650</v>
@@ -4800,10 +4800,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>875245</v>
+        <v>875668</v>
       </c>
       <c r="R42" t="n">
-        <v>7354354</v>
+        <v>7354134</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -4862,10 +4862,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112166970</v>
+        <v>112166985</v>
       </c>
       <c r="B43" t="n">
-        <v>77403</v>
+        <v>77650</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -4878,21 +4878,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4902,10 +4902,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>875504</v>
+        <v>875366</v>
       </c>
       <c r="R43" t="n">
-        <v>7354110</v>
+        <v>7354457</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -4964,10 +4964,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112166968</v>
+        <v>112167007</v>
       </c>
       <c r="B44" t="n">
-        <v>95701</v>
+        <v>81385</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -4976,25 +4976,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>221945</v>
+        <v>1312</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5004,10 +5004,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>875309</v>
+        <v>875455</v>
       </c>
       <c r="R44" t="n">
-        <v>7354426</v>
+        <v>7354168</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112166987</v>
+        <v>112166950</v>
       </c>
       <c r="B45" t="n">
-        <v>77650</v>
+        <v>89553</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5082,21 +5082,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>875318</v>
+        <v>875339</v>
       </c>
       <c r="R45" t="n">
-        <v>7354483</v>
+        <v>7354232</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5168,10 +5168,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112166958</v>
+        <v>112166975</v>
       </c>
       <c r="B46" t="n">
-        <v>89564</v>
+        <v>77650</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5180,25 +5180,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1205</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5208,10 +5208,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>875565</v>
+        <v>875610</v>
       </c>
       <c r="R46" t="n">
-        <v>7354076</v>
+        <v>7354119</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5270,7 +5270,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112166994</v>
+        <v>112166997</v>
       </c>
       <c r="B47" t="n">
         <v>77650</v>
@@ -5310,10 +5310,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>875456</v>
+        <v>875624</v>
       </c>
       <c r="R47" t="n">
-        <v>7354102</v>
+        <v>7354054</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5372,10 +5372,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112166973</v>
+        <v>112166948</v>
       </c>
       <c r="B48" t="n">
-        <v>77650</v>
+        <v>89553</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5388,21 +5388,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>875622</v>
+        <v>875313</v>
       </c>
       <c r="R48" t="n">
-        <v>7354036</v>
+        <v>7354254</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5474,10 +5474,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112166944</v>
+        <v>112166959</v>
       </c>
       <c r="B49" t="n">
-        <v>89478</v>
+        <v>89564</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5486,25 +5486,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3242</v>
+        <v>1205</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5514,10 +5514,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>875605</v>
+        <v>875558</v>
       </c>
       <c r="R49" t="n">
-        <v>7354180</v>
+        <v>7354079</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5576,10 +5576,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112166969</v>
+        <v>112166988</v>
       </c>
       <c r="B50" t="n">
-        <v>95701</v>
+        <v>77650</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5588,25 +5588,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5616,10 +5616,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>875371</v>
+        <v>875308</v>
       </c>
       <c r="R50" t="n">
-        <v>7354207</v>
+        <v>7354421</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -5678,10 +5678,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112167007</v>
+        <v>112166955</v>
       </c>
       <c r="B51" t="n">
-        <v>81385</v>
+        <v>78740</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5690,25 +5690,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1312</v>
+        <v>6462</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>875455</v>
+        <v>875571</v>
       </c>
       <c r="R51" t="n">
-        <v>7354168</v>
+        <v>7354019</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112166995</v>
+        <v>112166971</v>
       </c>
       <c r="B52" t="n">
         <v>77650</v>
@@ -5820,10 +5820,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>875471</v>
+        <v>875444</v>
       </c>
       <c r="R52" t="n">
-        <v>7354101</v>
+        <v>7354104</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -5882,10 +5882,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112166996</v>
+        <v>112166946</v>
       </c>
       <c r="B53" t="n">
-        <v>77650</v>
+        <v>89517</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -5894,25 +5894,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -5922,10 +5922,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>875494</v>
+        <v>875398</v>
       </c>
       <c r="R53" t="n">
-        <v>7354011</v>
+        <v>7354134</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112167006</v>
+        <v>112166996</v>
       </c>
       <c r="B54" t="n">
         <v>77650</v>
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>875668</v>
+        <v>875494</v>
       </c>
       <c r="R54" t="n">
-        <v>7354134</v>
+        <v>7354011</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112167002</v>
+        <v>112166991</v>
       </c>
       <c r="B55" t="n">
         <v>77650</v>
@@ -6126,10 +6126,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>875618</v>
+        <v>875303</v>
       </c>
       <c r="R55" t="n">
-        <v>7354107</v>
+        <v>7354304</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6188,10 +6188,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112166948</v>
+        <v>112166972</v>
       </c>
       <c r="B56" t="n">
-        <v>89553</v>
+        <v>77650</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6204,21 +6204,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6228,10 +6228,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>875313</v>
+        <v>875658</v>
       </c>
       <c r="R56" t="n">
-        <v>7354254</v>
+        <v>7354150</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6290,10 +6290,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112166956</v>
+        <v>112166989</v>
       </c>
       <c r="B57" t="n">
-        <v>78740</v>
+        <v>77650</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6302,25 +6302,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>875575</v>
+        <v>875245</v>
       </c>
       <c r="R57" t="n">
-        <v>7354017</v>
+        <v>7354354</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -6392,10 +6392,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112167008</v>
+        <v>112166977</v>
       </c>
       <c r="B58" t="n">
-        <v>78746</v>
+        <v>77650</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6404,20 +6404,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -6432,10 +6432,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>875535</v>
+        <v>875455</v>
       </c>
       <c r="R58" t="n">
-        <v>7353979</v>
+        <v>7354165</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>

--- a/artfynd/A 36117-2023.xlsx
+++ b/artfynd/A 36117-2023.xlsx
@@ -5576,7 +5576,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112166988</v>
+        <v>112166971</v>
       </c>
       <c r="B50" t="n">
         <v>77650</v>
@@ -5616,10 +5616,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>875308</v>
+        <v>875444</v>
       </c>
       <c r="R50" t="n">
-        <v>7354421</v>
+        <v>7354104</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -5678,10 +5678,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112166955</v>
+        <v>112166946</v>
       </c>
       <c r="B51" t="n">
-        <v>78740</v>
+        <v>89517</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5694,21 +5694,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6462</v>
+        <v>5447</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>875571</v>
+        <v>875398</v>
       </c>
       <c r="R51" t="n">
-        <v>7354019</v>
+        <v>7354134</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112166971</v>
+        <v>112166988</v>
       </c>
       <c r="B52" t="n">
         <v>77650</v>
@@ -5820,10 +5820,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>875444</v>
+        <v>875308</v>
       </c>
       <c r="R52" t="n">
-        <v>7354104</v>
+        <v>7354421</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -5882,10 +5882,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112166946</v>
+        <v>112166955</v>
       </c>
       <c r="B53" t="n">
-        <v>89517</v>
+        <v>78740</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -5898,21 +5898,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -5922,10 +5922,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>875398</v>
+        <v>875571</v>
       </c>
       <c r="R53" t="n">
-        <v>7354134</v>
+        <v>7354019</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
